--- a/docs/cda-logical-model/StructureDefinition-SubstanceAdministration.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-SubstanceAdministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="224">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -406,7 +410,7 @@
     <t>SubstanceAdministration.consumable.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1035,42 +1039,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="62.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="62.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="183.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="186.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="62.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="62.0625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1214,13 +1218,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1271,13 +1275,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1286,15 +1290,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1317,18 +1321,18 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s" s="2">
         <v>72</v>
@@ -1346,11 +1350,11 @@
         <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>72</v>
@@ -1368,7 +1372,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1388,10 +1392,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1414,7 +1418,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1467,7 +1471,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1487,10 +1491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1498,10 +1502,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1513,7 +1517,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1566,13 +1570,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1586,10 +1590,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1597,7 +1601,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1612,7 +1616,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1665,10 +1669,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1685,10 +1689,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1696,10 +1700,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1711,11 +1715,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1766,13 +1770,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1786,10 +1790,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1797,10 +1801,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1812,7 +1816,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1865,13 +1869,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1885,10 +1889,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1896,7 +1900,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1911,7 +1915,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1940,11 +1944,11 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1962,10 +1966,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1982,10 +1986,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1993,7 +1997,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -2008,7 +2012,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2061,10 +2065,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -2081,10 +2085,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2092,7 +2096,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2107,7 +2111,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2160,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2180,10 +2184,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2191,7 +2195,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2206,7 +2210,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2235,32 +2239,32 @@
         <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2277,10 +2281,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2288,10 +2292,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2303,7 +2307,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2356,13 +2360,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2376,10 +2380,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2387,7 +2391,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2402,7 +2406,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2431,11 +2435,11 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>72</v>
@@ -2453,10 +2457,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2484,7 +2488,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2499,7 +2503,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2552,10 +2556,10 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2572,10 +2576,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2583,7 +2587,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2598,7 +2602,7 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2627,32 +2631,32 @@
         <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -2669,10 +2673,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2680,10 +2684,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2695,7 +2699,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2724,35 +2728,35 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2766,10 +2770,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2777,7 +2781,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -2792,7 +2796,7 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2845,10 +2849,10 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -2865,10 +2869,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2876,7 +2880,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -2891,7 +2895,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2944,10 +2948,10 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
@@ -2964,10 +2968,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2975,7 +2979,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -2990,7 +2994,7 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3043,10 +3047,10 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
@@ -3063,10 +3067,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3074,7 +3078,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3089,7 +3093,7 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3118,32 +3122,32 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
@@ -3160,10 +3164,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3186,7 +3190,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3239,7 +3243,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3251,7 +3255,7 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3259,10 +3263,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3270,7 +3274,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3285,13 +3289,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3342,10 +3346,10 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3357,26 +3361,26 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3388,16 +3392,16 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3435,42 +3439,42 @@
         <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3493,18 +3497,18 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>72</v>
@@ -3522,11 +3526,11 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -3544,7 +3548,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3564,10 +3568,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3590,7 +3594,7 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3643,7 +3647,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -3663,10 +3667,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3674,7 +3678,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3689,7 +3693,7 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3742,10 +3746,10 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3754,7 +3758,7 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -3762,10 +3766,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3773,7 +3777,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -3788,13 +3792,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3845,10 +3849,10 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
@@ -3860,26 +3864,26 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3891,16 +3895,16 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3938,42 +3942,42 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3996,18 +4000,18 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>72</v>
@@ -4025,11 +4029,11 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -4047,7 +4051,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4067,10 +4071,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4093,18 +4097,18 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>72</v>
@@ -4122,11 +4126,11 @@
         <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -4144,7 +4148,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4164,10 +4168,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4175,7 +4179,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -4190,7 +4194,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4219,32 +4223,32 @@
         <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
@@ -4261,10 +4265,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4287,7 +4291,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4340,7 +4344,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4360,10 +4364,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4371,10 +4375,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4386,7 +4390,7 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4439,13 +4443,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4459,10 +4463,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4470,10 +4474,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4485,7 +4489,7 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -4538,13 +4542,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4558,10 +4562,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4569,10 +4573,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4584,7 +4588,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4637,13 +4641,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4657,10 +4661,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4668,10 +4672,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -4683,7 +4687,7 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4736,19 +4740,19 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -4756,10 +4760,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4767,7 +4771,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4782,13 +4786,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4839,10 +4843,10 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4854,26 +4858,26 @@
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -4885,16 +4889,16 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -4932,42 +4936,42 @@
         <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4990,18 +4994,18 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>72</v>
@@ -5019,11 +5023,11 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>72</v>
@@ -5041,7 +5045,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5061,10 +5065,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5087,18 +5091,18 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>72</v>
@@ -5116,11 +5120,11 @@
         <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>72</v>
@@ -5138,7 +5142,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -5158,10 +5162,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5169,7 +5173,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5184,7 +5188,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -5237,10 +5241,10 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5257,10 +5261,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5268,7 +5272,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5283,7 +5287,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5336,10 +5340,10 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -5356,10 +5360,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5367,10 +5371,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5382,7 +5386,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5435,13 +5439,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5455,10 +5459,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5466,10 +5470,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5481,7 +5485,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5534,19 +5538,19 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -5554,10 +5558,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5565,7 +5569,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5580,13 +5584,13 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5637,10 +5641,10 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5652,26 +5656,26 @@
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>72</v>
@@ -5683,16 +5687,16 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -5730,42 +5734,42 @@
         <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5788,7 +5792,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5841,7 +5845,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -5861,10 +5865,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5872,7 +5876,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5887,7 +5891,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5940,10 +5944,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5960,10 +5964,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5986,14 +5990,14 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
@@ -6039,7 +6043,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6059,10 +6063,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6070,7 +6074,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6085,7 +6089,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6138,10 +6142,10 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6158,10 +6162,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6169,7 +6173,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6184,7 +6188,7 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6237,10 +6241,10 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6257,10 +6261,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6268,7 +6272,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6283,7 +6287,7 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6336,10 +6340,10 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6356,10 +6360,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6367,7 +6371,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6382,7 +6386,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6435,10 +6439,10 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
@@ -6455,10 +6459,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6466,7 +6470,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -6481,7 +6485,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6534,10 +6538,10 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -6554,10 +6558,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6565,7 +6569,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6580,7 +6584,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6633,10 +6637,10 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6653,10 +6657,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6664,7 +6668,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -6679,7 +6683,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6732,10 +6736,10 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
@@ -6752,10 +6756,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6763,7 +6767,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -6778,7 +6782,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6831,10 +6835,10 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
@@ -6851,10 +6855,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6862,7 +6866,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -6877,7 +6881,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6930,10 +6934,10 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
@@ -6950,10 +6954,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -6961,7 +6965,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -6976,7 +6980,7 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -7029,10 +7033,10 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
@@ -7049,10 +7053,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7060,7 +7064,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -7075,7 +7079,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -7128,10 +7132,10 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
@@ -7148,10 +7152,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7159,7 +7163,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -7174,7 +7178,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7227,10 +7231,10 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -7247,10 +7251,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7258,10 +7262,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -7273,7 +7277,7 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7326,19 +7330,19 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -7346,10 +7350,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7357,7 +7361,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
@@ -7372,13 +7376,13 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7429,10 +7433,10 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>73</v>
@@ -7444,26 +7448,26 @@
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -7475,16 +7479,16 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -7522,42 +7526,42 @@
         <v>72</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7580,7 +7584,7 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -7633,7 +7637,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -7653,10 +7657,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7664,7 +7668,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>73</v>
@@ -7679,7 +7683,7 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -7732,10 +7736,10 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>73</v>
@@ -7752,10 +7756,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -7763,7 +7767,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>73</v>
@@ -7778,7 +7782,7 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -7831,10 +7835,10 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>73</v>
@@ -7851,10 +7855,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -7862,7 +7866,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>73</v>
@@ -7877,7 +7881,7 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -7930,10 +7934,10 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>73</v>
@@ -7950,10 +7954,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -7961,7 +7965,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>73</v>
@@ -7976,7 +7980,7 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -8029,10 +8033,10 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>73</v>
@@ -8049,10 +8053,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8060,7 +8064,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -8075,7 +8079,7 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -8128,10 +8132,10 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
@@ -8148,10 +8152,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8159,10 +8163,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>72</v>
@@ -8174,7 +8178,7 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -8227,13 +8231,13 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-SubstanceAdministration.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-SubstanceAdministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -388,7 +388,7 @@
     <t>SBADM</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActClass|2.0.0</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActClass</t>
   </si>
   <si>
     <t>SubstanceAdministration.moodCode</t>
@@ -410,7 +410,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdministrationCode</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActSubstanceAdministrationCode</t>
   </si>
   <si>
     <t>SubstanceAdministration.negationInd</t>
@@ -531,7 +531,7 @@
     <t>CSM</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationType</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAParticipationType</t>
   </si>
   <si>
     <t>SubstanceAdministration.consumable.manufacturedProduct</t>
@@ -941,7 +941,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.28125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
